--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>6501.944392399526</v>
+        <v>6704.047790128962</v>
       </c>
       <c r="R2">
-        <v>6501.944392399526</v>
+        <v>26816.19116051585</v>
       </c>
       <c r="S2">
-        <v>0.01618205605172639</v>
+        <v>0.01292172473371766</v>
       </c>
       <c r="T2">
-        <v>0.01618205605172639</v>
+        <v>0.006909422152695631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>4400.075776314668</v>
+        <v>4837.859616067403</v>
       </c>
       <c r="R3">
-        <v>4400.075776314668</v>
+        <v>29027.15769640442</v>
       </c>
       <c r="S3">
-        <v>0.01095091999362524</v>
+        <v>0.009324738160613478</v>
       </c>
       <c r="T3">
-        <v>0.01095091999362524</v>
+        <v>0.007479096685163551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>3319.541849262198</v>
+        <v>3443.405506722914</v>
       </c>
       <c r="R4">
-        <v>3319.541849262198</v>
+        <v>20660.43304033748</v>
       </c>
       <c r="S4">
-        <v>0.008261684356083555</v>
+        <v>0.006636995960851458</v>
       </c>
       <c r="T4">
-        <v>0.008261684356083555</v>
+        <v>0.005323338160841426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>3121.196862902066</v>
+        <v>3243.956763602942</v>
       </c>
       <c r="R5">
-        <v>3121.196862902066</v>
+        <v>19463.74058161765</v>
       </c>
       <c r="S5">
-        <v>0.007768042840076364</v>
+        <v>0.006252568248257146</v>
       </c>
       <c r="T5">
-        <v>0.007768042840076364</v>
+        <v>0.005015000062610048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>4585.901478749412</v>
+        <v>4958.799906608861</v>
       </c>
       <c r="R6">
-        <v>4585.901478749412</v>
+        <v>29752.79943965317</v>
       </c>
       <c r="S6">
-        <v>0.01141340348335879</v>
+        <v>0.009557844664700988</v>
       </c>
       <c r="T6">
-        <v>0.01141340348335879</v>
+        <v>0.007666064517608966</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>5513.912090814481</v>
+        <v>5699.15692848973</v>
       </c>
       <c r="R7">
-        <v>5513.912090814481</v>
+        <v>22796.62771395892</v>
       </c>
       <c r="S7">
-        <v>0.01372303869933945</v>
+        <v>0.01098484667019169</v>
       </c>
       <c r="T7">
-        <v>0.01372303869933945</v>
+        <v>0.005873747080290166</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>54435.56479274695</v>
+        <v>57666.54360449075</v>
       </c>
       <c r="R8">
-        <v>54435.56479274695</v>
+        <v>345999.2616269445</v>
       </c>
       <c r="S8">
-        <v>0.1354793747103286</v>
+        <v>0.1111494467416113</v>
       </c>
       <c r="T8">
-        <v>0.1354793747103286</v>
+        <v>0.08914968381570688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>36838.30490684634</v>
+        <v>41614.05933190539</v>
       </c>
       <c r="R9">
-        <v>36838.30490684634</v>
+        <v>374526.5339871484</v>
       </c>
       <c r="S9">
-        <v>0.09168326870805157</v>
+        <v>0.08020906720432733</v>
       </c>
       <c r="T9">
-        <v>0.09168326870805157</v>
+        <v>0.09649998074720383</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>27791.86109757855</v>
+        <v>29619.31358749468</v>
       </c>
       <c r="R10">
-        <v>27791.86109757855</v>
+        <v>266573.8222874521</v>
       </c>
       <c r="S10">
-        <v>0.06916845591428364</v>
+        <v>0.0570897805267446</v>
       </c>
       <c r="T10">
-        <v>0.06916845591428364</v>
+        <v>0.06868503666373174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>26131.27763135502</v>
+        <v>27903.70534572118</v>
       </c>
       <c r="R11">
-        <v>26131.27763135502</v>
+        <v>251133.3481114906</v>
       </c>
       <c r="S11">
-        <v>0.06503559148062114</v>
+        <v>0.05378302941978864</v>
       </c>
       <c r="T11">
-        <v>0.06503559148062114</v>
+        <v>0.06470666577276808</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>38394.07445124121</v>
+        <v>42654.35748555482</v>
       </c>
       <c r="R12">
-        <v>38394.07445124121</v>
+        <v>383889.2173699934</v>
       </c>
       <c r="S12">
-        <v>0.09555527198147171</v>
+        <v>0.08221419109414288</v>
       </c>
       <c r="T12">
-        <v>0.09555527198147171</v>
+        <v>0.09891235659830362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>46163.56289234148</v>
+        <v>49022.72355657932</v>
       </c>
       <c r="R13">
-        <v>46163.56289234148</v>
+        <v>294136.3413394759</v>
       </c>
       <c r="S13">
-        <v>0.1148919949460811</v>
+        <v>0.0944889057067818</v>
       </c>
       <c r="T13">
-        <v>0.1148919949460811</v>
+        <v>0.0757867566127808</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>20522.94377716355</v>
+        <v>40128.66246415425</v>
       </c>
       <c r="R14">
-        <v>20522.94377716355</v>
+        <v>240771.9747849255</v>
       </c>
       <c r="S14">
-        <v>0.05107755565192214</v>
+        <v>0.07734603727878479</v>
       </c>
       <c r="T14">
-        <v>0.05107755565192214</v>
+        <v>0.06203696887336914</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>13888.53892354488</v>
+        <v>28958.15209849469</v>
       </c>
       <c r="R15">
-        <v>13888.53892354488</v>
+        <v>260623.3688864523</v>
       </c>
       <c r="S15">
-        <v>0.03456583166108029</v>
+        <v>0.055815424043491</v>
       </c>
       <c r="T15">
-        <v>0.03456583166108029</v>
+        <v>0.06715185119748297</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>10477.90731923002</v>
+        <v>20611.31746553909</v>
       </c>
       <c r="R16">
-        <v>10477.90731923002</v>
+        <v>185501.8571898518</v>
       </c>
       <c r="S16">
-        <v>0.02607744288658872</v>
+        <v>0.03972730789316763</v>
       </c>
       <c r="T16">
-        <v>0.02607744288658872</v>
+        <v>0.04779614799736862</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>9851.844904991347</v>
+        <v>19417.46987642351</v>
       </c>
       <c r="R17">
-        <v>9851.844904991347</v>
+        <v>174757.2288878116</v>
       </c>
       <c r="S17">
-        <v>0.02451929712777048</v>
+        <v>0.03742622496483913</v>
       </c>
       <c r="T17">
-        <v>0.02451929712777048</v>
+        <v>0.04502770215924724</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>14475.08507239817</v>
+        <v>29682.06879022841</v>
       </c>
       <c r="R18">
-        <v>14475.08507239817</v>
+        <v>267138.6191120557</v>
       </c>
       <c r="S18">
-        <v>0.03602562923621232</v>
+        <v>0.05721073811546106</v>
       </c>
       <c r="T18">
-        <v>0.03602562923621232</v>
+        <v>0.06883056142033603</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>17404.28724125797</v>
+        <v>34113.65071865203</v>
       </c>
       <c r="R19">
-        <v>17404.28724125797</v>
+        <v>204681.9043119122</v>
       </c>
       <c r="S19">
-        <v>0.04331583518425718</v>
+        <v>0.06575239587308068</v>
       </c>
       <c r="T19">
-        <v>0.04331583518425718</v>
+        <v>0.05273805200161949</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>6477.502179460074</v>
+        <v>8021.050818076026</v>
       </c>
       <c r="R20">
-        <v>6477.502179460074</v>
+        <v>48126.30490845616</v>
       </c>
       <c r="S20">
-        <v>0.01612122420882771</v>
+        <v>0.01546018375628935</v>
       </c>
       <c r="T20">
-        <v>0.01612122420882771</v>
+        <v>0.01240015613222064</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>4383.534941360725</v>
+        <v>5788.251970448431</v>
       </c>
       <c r="R21">
-        <v>4383.534941360725</v>
+        <v>52094.26773403589</v>
       </c>
       <c r="S21">
-        <v>0.01090975312073104</v>
+        <v>0.01115657301274917</v>
       </c>
       <c r="T21">
-        <v>0.01090975312073104</v>
+        <v>0.01342253586109508</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>3307.062974660327</v>
+        <v>4119.858840704358</v>
       </c>
       <c r="R22">
-        <v>3307.062974660327</v>
+        <v>37078.72956633923</v>
       </c>
       <c r="S22">
-        <v>0.008230626900638999</v>
+        <v>0.007940826728553318</v>
       </c>
       <c r="T22">
-        <v>0.008230626900638999</v>
+        <v>0.009553653385223947</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>3109.463609932665</v>
+        <v>3881.228605024623</v>
       </c>
       <c r="R23">
-        <v>3109.463609932665</v>
+        <v>34931.05744522161</v>
       </c>
       <c r="S23">
-        <v>0.007738841089682763</v>
+        <v>0.007480878602417363</v>
       </c>
       <c r="T23">
-        <v>0.007738841089682763</v>
+        <v>0.009000287202772727</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>4568.662084854569</v>
+        <v>5932.950851893495</v>
       </c>
       <c r="R24">
-        <v>4568.662084854569</v>
+        <v>53396.55766704146</v>
       </c>
       <c r="S24">
-        <v>0.01137049803516237</v>
+        <v>0.01143547304058951</v>
       </c>
       <c r="T24">
-        <v>0.01137049803516237</v>
+        <v>0.01375808205624564</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>5493.184104643045</v>
+        <v>6818.750219966263</v>
       </c>
       <c r="R25">
-        <v>5493.184104643045</v>
+        <v>40912.50131979758</v>
       </c>
       <c r="S25">
-        <v>0.01367145083364535</v>
+        <v>0.01314280806591414</v>
       </c>
       <c r="T25">
-        <v>0.01367145083364535</v>
+        <v>0.01054145763091886</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>3686.631754002322</v>
+        <v>3757.640912505828</v>
       </c>
       <c r="R26">
-        <v>3686.631754002322</v>
+        <v>22545.84547503497</v>
       </c>
       <c r="S26">
-        <v>0.009175298662208889</v>
+        <v>0.007242669360300298</v>
       </c>
       <c r="T26">
-        <v>0.009175298662208889</v>
+        <v>0.005809130880817548</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>2494.862782268673</v>
+        <v>2711.636281749255</v>
       </c>
       <c r="R27">
-        <v>2494.862782268673</v>
+        <v>24404.7265357433</v>
       </c>
       <c r="S27">
-        <v>0.006209220957230999</v>
+        <v>0.005226546514527684</v>
       </c>
       <c r="T27">
-        <v>0.006209220957230999</v>
+        <v>0.006288087564233338</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>1882.195179112141</v>
+        <v>1930.040151184689</v>
       </c>
       <c r="R28">
-        <v>1882.195179112141</v>
+        <v>17370.3613606622</v>
       </c>
       <c r="S28">
-        <v>0.004684412238942802</v>
+        <v>0.003720058140896937</v>
       </c>
       <c r="T28">
-        <v>0.004684412238942802</v>
+        <v>0.004475622912563504</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>1769.73267853813</v>
+        <v>1818.248472402361</v>
       </c>
       <c r="R29">
-        <v>1769.73267853813</v>
+        <v>16364.23625162125</v>
       </c>
       <c r="S29">
-        <v>0.004404515276099917</v>
+        <v>0.003504585139216913</v>
       </c>
       <c r="T29">
-        <v>0.004404515276099917</v>
+        <v>0.004216386130010039</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>2600.226792472532</v>
+        <v>2779.423713750868</v>
       </c>
       <c r="R30">
-        <v>2600.226792472532</v>
+        <v>25014.81342375781</v>
       </c>
       <c r="S30">
-        <v>0.006471451178846952</v>
+        <v>0.005357203479416889</v>
       </c>
       <c r="T30">
-        <v>0.006471451178846952</v>
+        <v>0.006445281694968924</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N31">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O31">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P31">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q31">
-        <v>3126.412989095419</v>
+        <v>3194.396268000366</v>
       </c>
       <c r="R31">
-        <v>3126.412989095419</v>
+        <v>19166.3776080022</v>
       </c>
       <c r="S31">
-        <v>0.007781024748462475</v>
+        <v>0.006157042813192968</v>
       </c>
       <c r="T31">
-        <v>0.007781024748462475</v>
+        <v>0.004938381936456648</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N32">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O32">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P32">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q32">
-        <v>3573.447457594465</v>
+        <v>4127.9828903757</v>
       </c>
       <c r="R32">
-        <v>3573.447457594465</v>
+        <v>16511.9315615028</v>
       </c>
       <c r="S32">
-        <v>0.008893605292024402</v>
+        <v>0.007956485437569489</v>
       </c>
       <c r="T32">
-        <v>0.008893605292024402</v>
+        <v>0.004254441096124963</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P33">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q33">
-        <v>2418.267313155527</v>
+        <v>2978.887136003192</v>
       </c>
       <c r="R33">
-        <v>2418.267313155527</v>
+        <v>17873.32281601915</v>
       </c>
       <c r="S33">
-        <v>0.006018589955227032</v>
+        <v>0.005741659485321979</v>
       </c>
       <c r="T33">
-        <v>0.006018589955227032</v>
+        <v>0.004605215254771752</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N34">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O34">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P34">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q34">
-        <v>1824.409386750647</v>
+        <v>2120.259201807423</v>
       </c>
       <c r="R34">
-        <v>1824.409386750647</v>
+        <v>12721.55521084454</v>
       </c>
       <c r="S34">
-        <v>0.004540594809178224</v>
+        <v>0.004086696071920516</v>
       </c>
       <c r="T34">
-        <v>0.004540594809178224</v>
+        <v>0.003277818048969298</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N35">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O35">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P35">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q35">
-        <v>1715.39962836764</v>
+        <v>1997.449665706198</v>
       </c>
       <c r="R35">
-        <v>1715.39962836764</v>
+        <v>11984.69799423719</v>
       </c>
       <c r="S35">
-        <v>0.004269291040047098</v>
+        <v>0.003849986688298258</v>
       </c>
       <c r="T35">
-        <v>0.004269291040047098</v>
+        <v>0.003087960453409761</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N36">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O36">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P36">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q36">
-        <v>2520.396513875448</v>
+        <v>3053.355496871276</v>
       </c>
       <c r="R36">
-        <v>2520.396513875448</v>
+        <v>18320.13298122766</v>
       </c>
       <c r="S36">
-        <v>0.006272769374617279</v>
+        <v>0.00588519361434853</v>
       </c>
       <c r="T36">
-        <v>0.006272769374617279</v>
+        <v>0.00472033973442145</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N37">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O37">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P37">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q37">
-        <v>3030.428123216968</v>
+        <v>3509.226519090666</v>
       </c>
       <c r="R37">
-        <v>3030.428123216968</v>
+        <v>14036.90607636266</v>
       </c>
       <c r="S37">
-        <v>0.007542137365546962</v>
+        <v>0.006763862747923446</v>
       </c>
       <c r="T37">
-        <v>0.007542137365546962</v>
+        <v>0.003616729505647752</v>
       </c>
     </row>
   </sheetData>
